--- a/risk.xlsx
+++ b/risk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Desktop\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F912EDE5-90CB-41B1-A497-EC160F563712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F912EDE5-90CB-41B1-A497-EC160F563712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AB943BF-B8DC-4961-B96D-FAB3D7BD5212}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A365578E-4635-4818-9213-68B1A4417D86}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{A365578E-4635-4818-9213-68B1A4417D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Risk ID</t>
   </si>
@@ -141,16 +141,34 @@
   </si>
   <si>
     <t>Planned</t>
+  </si>
+  <si>
+    <t>R-005</t>
+  </si>
+  <si>
+    <t>R-006</t>
+  </si>
+  <si>
+    <t>R-007</t>
+  </si>
+  <si>
+    <t>R-008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF6A8-FFCA-4C04-982C-A3E19F7D6869}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +678,112 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/risk.xlsx
+++ b/risk.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/risk.xlsx
+++ b/risk.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/risk.xlsx
+++ b/risk.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
